--- a/data/RawData/ObsData/2009-2022/2019/01-11-2019.xlsx
+++ b/data/RawData/ObsData/2009-2022/2019/01-11-2019.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F122D7E-5DA6-4961-9493-04868AC08307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86DB24-3BAD-4BF9-800D-99677693B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Z$279</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="428">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1308,6 +1311,9 @@
   </si>
   <si>
     <t>Faz. 2 Irmãos</t>
+  </si>
+  <si>
+    <t>12/19</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2705,9 +2711,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2846,10 +2849,10 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3202,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J40"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3254,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3270,7 +3273,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3296,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -3538,7 +3541,7 @@
       </c>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
@@ -4050,16 +4053,16 @@
       <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="217"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
+      <c r="A22" s="216"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="66"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="218"/>
+      <c r="J22" s="217"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
-      <c r="C23" s="219"/>
+      <c r="C23" s="218"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
@@ -4101,7 +4104,7 @@
       <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="219" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="101"/>
@@ -4154,8 +4157,8 @@
       <c r="F25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="181">
-        <v>43809</v>
+      <c r="G25" s="229" t="s">
+        <v>427</v>
       </c>
       <c r="H25" s="19">
         <v>4145</v>
@@ -4235,7 +4238,7 @@
       <c r="G27" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="183">
+      <c r="H27" s="182">
         <v>4632</v>
       </c>
       <c r="I27" s="20"/>
@@ -4259,7 +4262,7 @@
         <v>89</v>
       </c>
       <c r="Q27" s="27"/>
-      <c r="V27" s="182" t="s">
+      <c r="V27" s="181" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4327,7 +4330,7 @@
       <c r="G29" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="184">
+      <c r="H29" s="183">
         <v>4258</v>
       </c>
       <c r="I29" s="176"/>
@@ -4388,7 +4391,7 @@
       <c r="O30" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="182" t="s">
+      <c r="P30" s="181" t="s">
         <v>399</v>
       </c>
       <c r="Q30" s="27"/>
@@ -4429,7 +4432,7 @@
       <c r="O31" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P31" s="182" t="s">
+      <c r="P31" s="181" t="s">
         <v>399</v>
       </c>
       <c r="Q31" s="27"/>
@@ -4454,7 +4457,7 @@
       <c r="O32" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="182" t="s">
+      <c r="P32" s="181" t="s">
         <v>399</v>
       </c>
       <c r="Q32" s="93"/>
@@ -4486,13 +4489,13 @@
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="186"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
     </row>
     <row r="34" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
@@ -4799,7 +4802,7 @@
       <c r="Q40" s="43">
         <v>4005</v>
       </c>
-      <c r="S40" s="193" t="s">
+      <c r="S40" s="192" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4852,19 +4855,19 @@
       <c r="B42" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="188" t="s">
+      <c r="C42" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>340</v>
       </c>
-      <c r="E42" s="188" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="188" t="s">
+      <c r="E42" s="187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="187" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="38"/>
@@ -4931,7 +4934,7 @@
     </row>
     <row r="44" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
-      <c r="B44" s="191" t="s">
+      <c r="B44" s="190" t="s">
         <v>401</v>
       </c>
       <c r="C44" s="152"/>
@@ -4940,7 +4943,7 @@
       <c r="F44" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="192" t="s">
+      <c r="G44" s="191" t="s">
         <v>399</v>
       </c>
       <c r="H44" s="63"/>
@@ -4972,7 +4975,7 @@
       <c r="C45" s="87"/>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
-      <c r="F45" s="189"/>
+      <c r="F45" s="188"/>
       <c r="G45" s="87"/>
       <c r="H45" s="87"/>
       <c r="I45" s="20"/>
@@ -4986,7 +4989,7 @@
       <c r="Q45" s="34"/>
     </row>
     <row r="46" spans="1:25" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="194" t="s">
+      <c r="A46" s="193" t="s">
         <v>403</v>
       </c>
       <c r="B46" s="48" t="s">
@@ -5007,7 +5010,7 @@
       <c r="G46" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="195">
+      <c r="H46" s="194">
         <v>4122</v>
       </c>
       <c r="I46" s="20"/>
@@ -5124,14 +5127,14 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="217"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="221"/>
+      <c r="A49" s="216"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="220"/>
       <c r="I49" s="20"/>
       <c r="J49" s="127" t="s">
         <v>0</v>
@@ -5159,7 +5162,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="220" t="s">
+      <c r="A50" s="219" t="s">
         <v>422</v>
       </c>
       <c r="B50" s="19"/>
@@ -5553,14 +5556,14 @@
       </c>
       <c r="H59" s="116"/>
       <c r="I59" s="91"/>
-      <c r="J59" s="222"/>
-      <c r="K59" s="223"/>
-      <c r="L59" s="223"/>
-      <c r="M59" s="223"/>
-      <c r="N59" s="223"/>
-      <c r="O59" s="223"/>
-      <c r="P59" s="224"/>
-      <c r="Q59" s="225"/>
+      <c r="J59" s="221"/>
+      <c r="K59" s="222"/>
+      <c r="L59" s="222"/>
+      <c r="M59" s="222"/>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="223"/>
+      <c r="Q59" s="224"/>
     </row>
     <row r="60" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="142"/>
@@ -5572,14 +5575,14 @@
       <c r="G60" s="77"/>
       <c r="H60" s="142"/>
       <c r="I60" s="92"/>
-      <c r="J60" s="222"/>
-      <c r="K60" s="223"/>
-      <c r="L60" s="223"/>
-      <c r="M60" s="223"/>
-      <c r="N60" s="223"/>
-      <c r="O60" s="223"/>
-      <c r="P60" s="224"/>
-      <c r="Q60" s="225"/>
+      <c r="J60" s="221"/>
+      <c r="K60" s="222"/>
+      <c r="L60" s="222"/>
+      <c r="M60" s="222"/>
+      <c r="N60" s="222"/>
+      <c r="O60" s="222"/>
+      <c r="P60" s="223"/>
+      <c r="Q60" s="224"/>
     </row>
     <row r="61" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
@@ -5666,7 +5669,7 @@
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="16"/>
-      <c r="U62" s="215"/>
+      <c r="U62" s="214"/>
     </row>
     <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
@@ -5715,7 +5718,7 @@
       <c r="Q63" s="23">
         <v>4995</v>
       </c>
-      <c r="U63" s="228"/>
+      <c r="U63" s="227"/>
     </row>
     <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
@@ -5755,14 +5758,14 @@
       <c r="O64" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P64" s="226" t="s">
+      <c r="P64" s="225" t="s">
         <v>423</v>
       </c>
       <c r="Q64" s="27" t="s">
         <v>143</v>
       </c>
       <c r="R64" s="96"/>
-      <c r="U64" s="228"/>
+      <c r="U64" s="227"/>
     </row>
     <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -5802,13 +5805,13 @@
       <c r="O65" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P65" s="226" t="s">
+      <c r="P65" s="225" t="s">
         <v>424</v>
       </c>
       <c r="Q65" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U65" s="229"/>
+      <c r="U65" s="228"/>
     </row>
     <row r="66" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
@@ -5848,7 +5851,7 @@
       <c r="O66" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P66" s="227" t="s">
+      <c r="P66" s="226" t="s">
         <v>424</v>
       </c>
       <c r="Q66" s="31" t="s">
@@ -5948,8 +5951,8 @@
       <c r="O68" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="P68" s="230">
-        <v>43586</v>
+      <c r="P68" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q68" s="122"/>
     </row>
@@ -5990,8 +5993,8 @@
       <c r="O69" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="P69" s="231">
-        <v>43586</v>
+      <c r="P69" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q69" s="38">
         <v>4604</v>
@@ -6008,7 +6011,7 @@
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
       <c r="H70" s="27"/>
-      <c r="I70" s="198"/>
+      <c r="I70" s="197"/>
       <c r="J70" s="25"/>
       <c r="K70" s="108" t="s">
         <v>368</v>
@@ -6025,8 +6028,8 @@
       <c r="O70" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="P70" s="231">
-        <v>43587</v>
+      <c r="P70" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q70" s="144"/>
     </row>
@@ -6051,7 +6054,7 @@
         <v>191</v>
       </c>
       <c r="H71" s="27"/>
-      <c r="I71" s="198"/>
+      <c r="I71" s="197"/>
       <c r="J71" s="25"/>
       <c r="K71" s="108" t="s">
         <v>369</v>
@@ -6068,8 +6071,8 @@
       <c r="O71" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P71" s="231">
-        <v>43588</v>
+      <c r="P71" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q71" s="144"/>
     </row>
@@ -6113,13 +6116,13 @@
       <c r="O72" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P72" s="231">
-        <v>43589</v>
+      <c r="P72" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q72" s="124"/>
     </row>
     <row r="73" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="187"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="26" t="s">
         <v>211</v>
       </c>
@@ -6148,8 +6151,8 @@
       <c r="O73" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="P73" s="231">
-        <v>43590</v>
+      <c r="P73" s="230" t="s">
+        <v>342</v>
       </c>
       <c r="Q73" s="126"/>
     </row>
@@ -6412,10 +6415,10 @@
       <c r="F81" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="199" t="s">
+      <c r="G81" s="198" t="s">
         <v>348</v>
       </c>
-      <c r="H81" s="200"/>
+      <c r="H81" s="199"/>
       <c r="I81" s="20"/>
       <c r="J81" s="28"/>
       <c r="K81" s="108" t="s">
@@ -6457,10 +6460,10 @@
       <c r="F82" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G82" s="201" t="s">
+      <c r="G82" s="200" t="s">
         <v>348</v>
       </c>
-      <c r="H82" s="202"/>
+      <c r="H82" s="201"/>
       <c r="I82" s="20"/>
       <c r="J82" s="28"/>
       <c r="K82" s="108" t="s">
@@ -6498,10 +6501,10 @@
       <c r="F83" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G83" s="201" t="s">
+      <c r="G83" s="200" t="s">
         <v>348</v>
       </c>
-      <c r="H83" s="202"/>
+      <c r="H83" s="201"/>
       <c r="I83" s="20"/>
       <c r="J83" s="39"/>
       <c r="K83" s="125" t="s">
@@ -6539,13 +6542,13 @@
       <c r="H84" s="172"/>
       <c r="I84" s="20"/>
       <c r="J84" s="82"/>
-      <c r="K84" s="196"/>
-      <c r="L84" s="196"/>
-      <c r="M84" s="196"/>
-      <c r="N84" s="196"/>
-      <c r="O84" s="196"/>
-      <c r="P84" s="196"/>
-      <c r="Q84" s="197"/>
+      <c r="K84" s="195"/>
+      <c r="L84" s="195"/>
+      <c r="M84" s="195"/>
+      <c r="N84" s="195"/>
+      <c r="O84" s="195"/>
+      <c r="P84" s="195"/>
+      <c r="Q84" s="196"/>
     </row>
     <row r="85" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
@@ -7629,7 +7632,7 @@
       </c>
       <c r="H113" s="166"/>
       <c r="I113" s="32"/>
-      <c r="J113" s="206" t="s">
+      <c r="J113" s="205" t="s">
         <v>407</v>
       </c>
       <c r="K113" s="87"/>
@@ -7642,28 +7645,28 @@
     </row>
     <row r="114" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I114" s="32"/>
-      <c r="J114" s="207" t="s">
+      <c r="J114" s="206" t="s">
         <v>409</v>
       </c>
-      <c r="K114" s="208" t="s">
+      <c r="K114" s="207" t="s">
         <v>411</v>
       </c>
-      <c r="L114" s="208" t="s">
+      <c r="L114" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="207" t="s">
         <v>411</v>
       </c>
-      <c r="N114" s="208" t="s">
-        <v>12</v>
-      </c>
-      <c r="O114" s="208" t="s">
-        <v>13</v>
-      </c>
-      <c r="P114" s="209" t="s">
+      <c r="N114" s="207" t="s">
+        <v>12</v>
+      </c>
+      <c r="O114" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="P114" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="Q114" s="210">
+      <c r="Q114" s="209">
         <v>4349</v>
       </c>
     </row>
@@ -7691,26 +7694,26 @@
       </c>
       <c r="H115" s="147"/>
       <c r="I115" s="32"/>
-      <c r="J115" s="211"/>
-      <c r="K115" s="212" t="s">
+      <c r="J115" s="210"/>
+      <c r="K115" s="211" t="s">
         <v>410</v>
       </c>
-      <c r="L115" s="212" t="s">
+      <c r="L115" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="M115" s="212" t="s">
+      <c r="M115" s="211" t="s">
         <v>410</v>
       </c>
-      <c r="N115" s="212" t="s">
+      <c r="N115" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="O115" s="212" t="s">
-        <v>13</v>
-      </c>
-      <c r="P115" s="213" t="s">
+      <c r="O115" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="P115" s="212" t="s">
         <v>412</v>
       </c>
-      <c r="Q115" s="214"/>
+      <c r="Q115" s="213"/>
     </row>
     <row r="116" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="148" t="s">
@@ -7736,14 +7739,14 @@
       </c>
       <c r="H116" s="115"/>
       <c r="I116" s="32"/>
-      <c r="J116" s="204"/>
-      <c r="K116" s="190"/>
-      <c r="L116" s="190"/>
-      <c r="M116" s="190"/>
-      <c r="N116" s="190"/>
-      <c r="O116" s="190"/>
-      <c r="P116" s="190"/>
-      <c r="Q116" s="205"/>
+      <c r="J116" s="203"/>
+      <c r="K116" s="189"/>
+      <c r="L116" s="189"/>
+      <c r="M116" s="189"/>
+      <c r="N116" s="189"/>
+      <c r="O116" s="189"/>
+      <c r="P116" s="189"/>
+      <c r="Q116" s="204"/>
     </row>
     <row r="117" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="148"/>
@@ -7767,7 +7770,7 @@
       </c>
       <c r="H117" s="115"/>
       <c r="I117" s="32"/>
-      <c r="J117" s="216"/>
+      <c r="J117" s="215"/>
       <c r="K117" s="87"/>
       <c r="L117" s="87"/>
       <c r="M117" s="87"/>
@@ -7798,7 +7801,7 @@
       </c>
       <c r="H118" s="131"/>
       <c r="I118" s="32"/>
-      <c r="J118" s="216"/>
+      <c r="J118" s="215"/>
       <c r="K118" s="87"/>
       <c r="L118" s="87"/>
       <c r="M118" s="87"/>
@@ -7809,7 +7812,7 @@
     </row>
     <row r="119" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I119" s="32"/>
-      <c r="J119" s="216"/>
+      <c r="J119" s="215"/>
       <c r="K119" s="87"/>
       <c r="L119" s="87"/>
       <c r="M119" s="87"/>
@@ -8424,13 +8427,13 @@
         <v>377</v>
       </c>
       <c r="H134" s="113"/>
-      <c r="J134" s="186"/>
-      <c r="K134" s="186"/>
-      <c r="L134" s="186"/>
-      <c r="M134" s="186"/>
-      <c r="N134" s="186"/>
-      <c r="O134" s="186"/>
-      <c r="P134" s="186"/>
+      <c r="J134" s="185"/>
+      <c r="K134" s="185"/>
+      <c r="L134" s="185"/>
+      <c r="M134" s="185"/>
+      <c r="N134" s="185"/>
+      <c r="O134" s="185"/>
+      <c r="P134" s="185"/>
       <c r="Q134" s="66"/>
     </row>
     <row r="135" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,14 +8569,14 @@
       </c>
     </row>
     <row r="138" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="203"/>
-      <c r="B138" s="203"/>
-      <c r="C138" s="203"/>
-      <c r="D138" s="203"/>
-      <c r="E138" s="203"/>
-      <c r="F138" s="203"/>
-      <c r="G138" s="203"/>
-      <c r="H138" s="203"/>
+      <c r="A138" s="202"/>
+      <c r="B138" s="202"/>
+      <c r="C138" s="202"/>
+      <c r="D138" s="202"/>
+      <c r="E138" s="202"/>
+      <c r="F138" s="202"/>
+      <c r="G138" s="202"/>
+      <c r="H138" s="202"/>
       <c r="J138" s="25"/>
       <c r="K138" s="26" t="s">
         <v>328</v>
@@ -8784,37 +8787,37 @@
       <c r="Q145" s="31"/>
     </row>
     <row r="146" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J146" s="215"/>
-      <c r="K146" s="215"/>
-      <c r="L146" s="215"/>
-      <c r="M146" s="215"/>
-      <c r="N146" s="215"/>
-      <c r="O146" s="215"/>
-      <c r="P146" s="215"/>
-      <c r="Q146" s="215"/>
+      <c r="J146" s="214"/>
+      <c r="K146" s="214"/>
+      <c r="L146" s="214"/>
+      <c r="M146" s="214"/>
+      <c r="N146" s="214"/>
+      <c r="O146" s="214"/>
+      <c r="P146" s="214"/>
+      <c r="Q146" s="214"/>
       <c r="T146" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J147" s="215"/>
-      <c r="K147" s="215"/>
-      <c r="L147" s="215"/>
-      <c r="M147" s="215"/>
-      <c r="N147" s="215"/>
-      <c r="O147" s="215"/>
-      <c r="P147" s="215"/>
-      <c r="Q147" s="215"/>
+      <c r="J147" s="214"/>
+      <c r="K147" s="214"/>
+      <c r="L147" s="214"/>
+      <c r="M147" s="214"/>
+      <c r="N147" s="214"/>
+      <c r="O147" s="214"/>
+      <c r="P147" s="214"/>
+      <c r="Q147" s="214"/>
     </row>
     <row r="148" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J148" s="215"/>
-      <c r="K148" s="215"/>
-      <c r="L148" s="215"/>
-      <c r="M148" s="215"/>
-      <c r="N148" s="215"/>
-      <c r="O148" s="215"/>
-      <c r="P148" s="215"/>
-      <c r="Q148" s="215"/>
+      <c r="J148" s="214"/>
+      <c r="K148" s="214"/>
+      <c r="L148" s="214"/>
+      <c r="M148" s="214"/>
+      <c r="N148" s="214"/>
+      <c r="O148" s="214"/>
+      <c r="P148" s="214"/>
+      <c r="Q148" s="214"/>
     </row>
     <row r="149" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/RawData/ObsData/2009-2022/2019/01-11-2019.xlsx
+++ b/data/RawData/ObsData/2009-2022/2019/01-11-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86DB24-3BAD-4BF9-800D-99677693B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CCCF0-1E5F-43C4-B6CE-C6393B28CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
